--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mpv419/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mpv419/Desktop/Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>newtest2</t>
   </si>
 </sst>
 </file>
@@ -344,9 +347,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -355,6 +360,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
